--- a/biology/Neurosciences/Nerf_subclavier/Nerf_subclavier.xlsx
+++ b/biology/Neurosciences/Nerf_subclavier/Nerf_subclavier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf subclavier (ou nerf sous-clavier) est un nerf moteur qui innerve le muscle subclavier.
 </t>
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il nait à partir du tronc supérieur du plexus brachial, et dans moins de 2 % des cas depuis la racine C5[1]. Il est constitué de fibres des racines C5 et C6.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il nait à partir du tronc supérieur du plexus brachial, et dans moins de 2 % des cas depuis la racine C5. Il est constitué de fibres des racines C5 et C6.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf subclavier chemine sur la face antérieure du muscle scalène antérieur.
-Il peut être à l'origine d'un nerf inconstant : le nerf phrénique accessoire[2].
+Il peut être à l'origine d'un nerf inconstant : le nerf phrénique accessoire.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Zone d'innervation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a une fonction uniquement motrice, à destination d'un seul muscle : le muscle subclavier.
 </t>
